--- a/results/params.xlsx
+++ b/results/params.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>18.007142</v>
+        <v>29.174445</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.095172569</v>
+        <v>0.08317511</v>
       </c>
       <c r="C3">
         <v>0.05</v>
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>4999.9755</v>
+        <v>4999.9997</v>
       </c>
       <c r="C6">
         <v>0.01</v>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>1.9999747</v>
+        <v>1.999999</v>
       </c>
       <c r="C7">
         <v>1e-06</v>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.40595608</v>
+        <v>1.9585686</v>
       </c>
       <c r="C8">
         <v>1e-06</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>1.4013143</v>
+        <v>1.0022805e-06</v>
       </c>
       <c r="C9">
         <v>1e-06</v>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.60769071</v>
+        <v>0.12468041</v>
       </c>
       <c r="C10">
         <v>1e-07</v>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>129.18651</v>
+        <v>252.3337</v>
       </c>
       <c r="C11">
         <v>1e-06</v>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>8.4461358</v>
+        <v>6.2042942</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>1.3167567</v>
+        <v>0.85143389</v>
       </c>
       <c r="C13">
         <v>0.5</v>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>2.1095932e-06</v>
+        <v>76.045075</v>
       </c>
       <c r="C14">
         <v>1e-06</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.3400343e-06</v>
+        <v>12.991144</v>
       </c>
       <c r="C15">
         <v>1e-06</v>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.3223571e-06</v>
+        <v>1.0002893e-06</v>
       </c>
       <c r="C16">
         <v>1e-06</v>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>1.1567203e-06</v>
+        <v>1.0000088e-06</v>
       </c>
       <c r="C17">
         <v>1e-06</v>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>1.0592003e-06</v>
+        <v>1.0000008e-06</v>
       </c>
       <c r="C18">
         <v>1e-06</v>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>1.0005666e-06</v>
+        <v>1.0000109e-06</v>
       </c>
       <c r="C19">
         <v>1e-06</v>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>1.7943151</v>
+        <v>10.111966</v>
       </c>
       <c r="C20">
         <v>1e-06</v>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.98881059</v>
+        <v>50.799708</v>
       </c>
       <c r="C21">
         <v>1e-06</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.3616775</v>
+        <v>0.97339172</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>277.46088</v>
+        <v>160.0545</v>
       </c>
       <c r="C23">
         <v>1e-06</v>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>10.699637</v>
+        <v>9.866707699999999</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>1.5889531</v>
+        <v>1.679041</v>
       </c>
       <c r="C25">
         <v>0.5</v>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>6.4015251e-12</v>
+        <v>1.5287718e-14</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>231.68832</v>
+        <v>598.06091</v>
       </c>
       <c r="C27">
         <v>1e-06</v>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.027801437</v>
+        <v>0.2299311</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>126.6115</v>
+        <v>163.78642</v>
       </c>
       <c r="C29">
         <v>1e-06</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.34768129</v>
+        <v>0.26884059</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>107.54116</v>
+        <v>147.81167</v>
       </c>
       <c r="C31">
         <v>1e-06</v>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.048584859</v>
+        <v>0.0057417882</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>53.539002</v>
+        <v>83.73015700000001</v>
       </c>
       <c r="C33">
         <v>1e-06</v>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.031960436</v>
+        <v>0.0010753622</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>171.9731</v>
+        <v>121.41986</v>
       </c>
       <c r="C35">
         <v>1e-06</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>1.5364834e-13</v>
+        <v>1.8399146e-14</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>187.0176</v>
+        <v>172.96309</v>
       </c>
       <c r="C37">
         <v>1e-06</v>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.16998147</v>
+        <v>0.28585693</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>357.02864</v>
+        <v>295.80542</v>
       </c>
       <c r="C39">
         <v>1e-06</v>
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.51425561</v>
+        <v>0.17991137</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>214.69115</v>
+        <v>945.69826</v>
       </c>
       <c r="C41">
         <v>1e-06</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.035522348</v>
+        <v>0.24771521</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>449.80285</v>
+        <v>288.53057</v>
       </c>
       <c r="C43">
         <v>1e-06</v>
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.18101771</v>
+        <v>0.059868212</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B45">
-        <v>114.96882</v>
+        <v>294.25045</v>
       </c>
       <c r="C45">
         <v>1e-06</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.11396805</v>
+        <v>0.12866976</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B47">
-        <v>88.093159</v>
+        <v>182.34025</v>
       </c>
       <c r="C47">
         <v>1e-06</v>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.079904933</v>
+        <v>0.16242264</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="B49">
-        <v>251.7767</v>
+        <v>235.17924</v>
       </c>
       <c r="C49">
         <v>1e-06</v>
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.1780226</v>
+        <v>0.30013331</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>193.04191</v>
+        <v>255.50264</v>
       </c>
       <c r="C51">
         <v>1e-06</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="B52">
-        <v>5.5919705e-12</v>
+        <v>2.9063089e-15</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="B53">
-        <v>161.65159</v>
+        <v>133.89504</v>
       </c>
       <c r="C53">
         <v>1e-06</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.24984751</v>
+        <v>0.23081236</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="B55">
-        <v>167.61982</v>
+        <v>176.08767</v>
       </c>
       <c r="C55">
         <v>1e-06</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.21625893</v>
+        <v>0.34090307</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B57">
-        <v>175.48447</v>
+        <v>167.91428</v>
       </c>
       <c r="C57">
         <v>1e-06</v>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.95042903</v>
+        <v>0.72501381</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>225.30922</v>
+        <v>287.0452</v>
       </c>
       <c r="C59">
         <v>1e-06</v>
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.15185543</v>
+        <v>0.56048866</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B61">
-        <v>359.18309</v>
+        <v>185.4575</v>
       </c>
       <c r="C61">
         <v>1e-06</v>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.47197613</v>
+        <v>0.052511486</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="B63">
-        <v>85.194028</v>
+        <v>221.49705</v>
       </c>
       <c r="C63">
         <v>1e-06</v>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="B64">
-        <v>1.6469569e-12</v>
+        <v>1.2077726e-14</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>652.32303</v>
+        <v>493.96858</v>
       </c>
       <c r="C65">
         <v>1e-06</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.96179541</v>
+        <v>0.54254741</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="B67">
-        <v>67.99194300000001</v>
+        <v>132.07398</v>
       </c>
       <c r="C67">
         <v>1e-06</v>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.50488314</v>
+        <v>0.39406761</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="B69">
-        <v>193.2843</v>
+        <v>231.88819</v>
       </c>
       <c r="C69">
         <v>1e-06</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B70">
-        <v>0.19978522</v>
+        <v>4.9126975e-14</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B71">
-        <v>267.1878</v>
+        <v>179.35222</v>
       </c>
       <c r="C71">
         <v>1e-06</v>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.29604314</v>
+        <v>0.17099221</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="B73">
-        <v>93.318258</v>
+        <v>165.15027</v>
       </c>
       <c r="C73">
         <v>1e-06</v>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.44103717</v>
+        <v>0.42166825</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="B75">
-        <v>148.50914</v>
+        <v>267.84076</v>
       </c>
       <c r="C75">
         <v>1e-06</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>0.28342797</v>
+        <v>0.66013641</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="B77">
-        <v>460.88324</v>
+        <v>186.81564</v>
       </c>
       <c r="C77">
         <v>1e-06</v>
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="B78">
-        <v>0.30372298</v>
+        <v>0.53677823</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="B79">
-        <v>2.8531781</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>0.5</v>
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="B80">
-        <v>0.60996264</v>
+        <v>0.27920627</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B81">
-        <v>0.98116811</v>
+        <v>0.77420349</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B82">
-        <v>0.41595804</v>
+        <v>0.4220426</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="B83">
-        <v>0.94298138</v>
+        <v>0.8540212700000001</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="B84">
-        <v>0.34512319</v>
+        <v>0.59759378</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>0.41504398</v>
+        <v>0.66286819</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B86">
-        <v>0.48902107</v>
+        <v>0.7302060500000001</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="B87">
-        <v>0.26227406</v>
+        <v>0.10197067</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="B88">
-        <v>0.51484977</v>
+        <v>0.79773147</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="B89">
-        <v>0.71554216</v>
+        <v>0.36521309</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="B90">
-        <v>0.80058189</v>
+        <v>0.56346992</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B91">
-        <v>0.6813802</v>
+        <v>0.8831129</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         </is>
       </c>
       <c r="B92">
-        <v>0.95280562</v>
+        <v>0.6503373</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="B93">
-        <v>0.49612619</v>
+        <v>0.69524423</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="B94">
-        <v>0.34540161</v>
+        <v>0.39671789</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="B95">
-        <v>0.6680619</v>
+        <v>0.55823273</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="B96">
-        <v>0.14394184</v>
+        <v>0.08156432600000001</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="B97">
-        <v>0.5584036</v>
+        <v>0.69915048</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="B98">
-        <v>0.62987033</v>
+        <v>0.2670861</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="B99">
-        <v>0.025092922</v>
+        <v>0.052599107</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="B100">
-        <v>0.2273459</v>
+        <v>0.07144830100000001</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B101">
-        <v>0.45939065</v>
+        <v>0.36071917</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="B102">
-        <v>0.1473973</v>
+        <v>0.27344852</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="B103">
-        <v>0.86208748</v>
+        <v>0.68070928</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="B104">
-        <v>0.76813854</v>
+        <v>0.42063908</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="B105">
-        <v>0.013472538</v>
+        <v>0.077733918</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="B106">
-        <v>0.71016842</v>
+        <v>0.37332627</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="B107">
-        <v>245.47614</v>
+        <v>393.99558</v>
       </c>
       <c r="C107">
         <v>1e-06</v>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="B108">
-        <v>0.098865282</v>
+        <v>0.058572145</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="B109">
-        <v>0.92272332</v>
+        <v>0.56007462</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="B110">
-        <v>140.38189</v>
+        <v>221.73097</v>
       </c>
       <c r="C110">
         <v>1e-06</v>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B111">
-        <v>0.045637528</v>
+        <v>0.044340509</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B112">
-        <v>0.15106778</v>
+        <v>0.077143589</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="B113">
-        <v>3.1056131</v>
+        <v>2.9830517</v>
       </c>
       <c r="C113">
         <v>0.5</v>
@@ -2519,7 +2519,7 @@
         </is>
       </c>
       <c r="B114">
-        <v>0.41576236</v>
+        <v>0.21456842</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="B115">
-        <v>0.17531564</v>
+        <v>0.13850618</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="B116">
-        <v>0.10521024</v>
+        <v>0.062815053</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="B117">
-        <v>0.052821293</v>
+        <v>0.12667908</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="B118">
-        <v>0.07070012000000001</v>
+        <v>0.085529562</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="B119">
-        <v>0.063142821</v>
+        <v>0.090478449</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B120">
-        <v>0.13358423</v>
+        <v>0.010167636</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B121">
-        <v>0.09506653</v>
+        <v>0.14606702</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="B122">
-        <v>0.37004775</v>
+        <v>0.19484385</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="B123">
-        <v>0.09266242099999999</v>
+        <v>0.044333208</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="B124">
-        <v>0.019790931</v>
+        <v>0.028468924</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="B125">
-        <v>0.12306635</v>
+        <v>0.045430496</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="B126">
-        <v>0.32233551</v>
+        <v>0.37018086</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         </is>
       </c>
       <c r="B127">
-        <v>0.093506503</v>
+        <v>0.08371921</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="B128">
-        <v>0.03493121</v>
+        <v>0.041881024</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="B129">
-        <v>0.10709874</v>
+        <v>0.061928936</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="B130">
-        <v>4.0792242e-13</v>
+        <v>0.00046406412</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B131">
-        <v>1.2223279e-12</v>
+        <v>0.017480835</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         </is>
       </c>
       <c r="B132">
-        <v>0.18079377</v>
+        <v>0.076185724</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="B133">
-        <v>6.1916e-13</v>
+        <v>2.5898602e-15</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="B134">
-        <v>0.070513269</v>
+        <v>0.06320778000000001</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="B135">
-        <v>0.51183915</v>
+        <v>0.99987473</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="B136">
-        <v>0.85532063</v>
+        <v>0.053240696</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="B137">
-        <v>0.04874051</v>
+        <v>0.0031108321</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="B138">
-        <v>0.07090787699999999</v>
+        <v>0.13295025</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="B139">
-        <v>0.10091118</v>
+        <v>0.055742829</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="B140">
-        <v>0.13867625</v>
+        <v>0.10282592</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B141">
-        <v>0.095710489</v>
+        <v>0.06929489799999999</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="B142">
-        <v>148.98036</v>
+        <v>247.89902</v>
       </c>
       <c r="C142">
         <v>1e-06</v>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="B143">
-        <v>0.49818619</v>
+        <v>0.25491456</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="B144">
-        <v>0.2021773</v>
+        <v>0.11324645</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="B145">
-        <v>0.053920508</v>
+        <v>0.015530967</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B146">
-        <v>225.61154</v>
+        <v>470.07545</v>
       </c>
       <c r="C146">
         <v>1e-06</v>
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="B147">
-        <v>0.89141564</v>
+        <v>0.34122448</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="B148">
-        <v>5.9931361e-12</v>
+        <v>2.1465414e-13</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B149">
-        <v>0.4560571</v>
+        <v>0.3604926</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="B150">
-        <v>112.47985</v>
+        <v>105.7038</v>
       </c>
       <c r="C150">
         <v>1e-06</v>
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B151">
-        <v>0.84694274</v>
+        <v>0.83925989</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="B152">
-        <v>0.68826069</v>
+        <v>0.66302494</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="B153">
-        <v>0.33706767</v>
+        <v>0.10549622</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="B154">
-        <v>150.09855</v>
+        <v>454.40396</v>
       </c>
       <c r="C154">
         <v>1e-06</v>
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="B155">
-        <v>0.94605678</v>
+        <v>0.32376543</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="B156">
-        <v>0.04502712</v>
+        <v>0.037861226</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="B157">
-        <v>0.11416525</v>
+        <v>0.18378648</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="B158">
-        <v>253.83394</v>
+        <v>227.82486</v>
       </c>
       <c r="C158">
         <v>1e-06</v>
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="B159">
-        <v>0.95036782</v>
+        <v>0.55737514</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         </is>
       </c>
       <c r="B160">
-        <v>1.3776928e-10</v>
+        <v>0.013638279</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B161">
-        <v>0.2629045</v>
+        <v>0.04906603</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="B162">
-        <v>114.0943</v>
+        <v>296.92859</v>
       </c>
       <c r="C162">
         <v>1e-06</v>
@@ -3450,7 +3450,7 @@
         </is>
       </c>
       <c r="B163">
-        <v>0.67131523</v>
+        <v>0.13350682</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="B164">
-        <v>0.14171901</v>
+        <v>0.42769883</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="B165">
-        <v>0.10617972</v>
+        <v>0.40670903</v>
       </c>
       <c r="C165">
         <v>0.1</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="B166">
-        <v>0.31625755</v>
+        <v>0.86539727</v>
       </c>
       <c r="C166">
         <v>0.1</v>
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="B167">
-        <v>19.999959</v>
+        <v>10.616194</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -3545,7 +3545,7 @@
         </is>
       </c>
       <c r="B168">
-        <v>13.531798</v>
+        <v>10.924129</v>
       </c>
       <c r="C168">
         <v>6</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="B169">
-        <v>1.1560583</v>
+        <v>1.4097157</v>
       </c>
       <c r="C169">
         <v>0.2</v>
@@ -3583,7 +3583,7 @@
         </is>
       </c>
       <c r="B170">
-        <v>13.173725</v>
+        <v>12.82697</v>
       </c>
       <c r="C170">
         <v>2</v>
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B171">
-        <v>0.24568826</v>
+        <v>0.4588519</v>
       </c>
       <c r="C171">
         <v>0.2</v>
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="B172">
-        <v>19.999995</v>
+        <v>14.269684</v>
       </c>
       <c r="C172">
         <v>2</v>
